--- a/servo_tester_pca/Лист Microsoft Excel.xlsx
+++ b/servo_tester_pca/Лист Microsoft Excel.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="B3:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="I13">
         <v>135</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="I15">
         <v>535</v>
@@ -694,10 +694,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="D21">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>

--- a/servo_tester_pca/Лист Microsoft Excel.xlsx
+++ b/servo_tester_pca/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>x</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>1....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
   </si>
 </sst>
 </file>
@@ -435,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,15 +650,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -672,7 +675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -689,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -706,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>5</v>
       </c>
@@ -722,8 +725,11 @@
       <c r="G23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>6</v>
       </c>
